--- a/data/rrv_volatiles_pca_correlation_table_pca_dat.xlsx
+++ b/data/rrv_volatiles_pca_correlation_table_pca_dat.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,177 +382,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2-Hexen-1-ol, acetate, (E)-</t>
+          <t>Pinene &lt;1R-alpha-&gt;</t>
         </is>
       </c>
       <c r="B2">
-        <v>0.05420458743930853</v>
+        <v>0.0008426996900929209</v>
       </c>
       <c r="C2">
-        <v>-0.02976250836983196</v>
+        <v>-2.400038665464561e-005</v>
       </c>
       <c r="D2">
-        <v>0.02435311302954834</v>
+        <v>1.321003380703168e-005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-Hexenal</t>
+          <t>Pinene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.04624402295651474</v>
+        <v>-0.3480232863651772</v>
       </c>
       <c r="C3">
-        <v>-0.01302902996351455</v>
+        <v>-0.03496979814666689</v>
       </c>
       <c r="D3">
-        <v>0.03538044412954587</v>
+        <v>0.108041696346479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-Thujene</t>
+          <t>Pinene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B4">
-        <v>0.001780944283730125</v>
+        <v>-0.3792399060688819</v>
       </c>
       <c r="C4">
-        <v>-0.01320343461778556</v>
+        <v>-0.02643293311685491</v>
       </c>
       <c r="D4">
-        <v>-0.01441519542814026</v>
+        <v>0.1170350457138415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,4,6-Octatriene, 2,6-dimethyl-, (E,Z)-</t>
+          <t>Carene, &lt;3-&gt;</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.1868497370044737</v>
+        <v>0.005709122586795672</v>
       </c>
       <c r="C5">
-        <v>-0.0314170293541958</v>
+        <v>-0.0004854985555535939</v>
       </c>
       <c r="D5">
-        <v>0.08529886779105071</v>
+        <v>0.009617972540196815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol Acetate (Z)-</t>
+          <t>Carene &lt;delta-3&gt;</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.4125873312997108</v>
+        <v>0.0007491808990932261</v>
       </c>
       <c r="C6">
-        <v>-0.2322728160677082</v>
+        <v>-0.0001487960769789827</v>
       </c>
       <c r="D6">
-        <v>-0.1892060021171221</v>
+        <v>0.002412451580147156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol, (Z)-</t>
+          <t>Phellandrene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.09150034649219316</v>
+        <v>5.296210996796941e-005</v>
       </c>
       <c r="C7">
-        <v>-0.03633609850396157</v>
+        <v>-4.426801875598585e-006</v>
       </c>
       <c r="D7">
-        <v>0.06191297878773029</v>
+        <v>8.594392321535143e-005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5-Hepten-2-one, &lt;6-methyl-&gt;</t>
+          <t>p-Cymene</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.002091859330709184</v>
+        <v>0.0004944916952985073</v>
       </c>
       <c r="C8">
-        <v>0.0006732029784726981</v>
+        <v>-3.790253387993103e-005</v>
       </c>
       <c r="D8">
-        <v>0.00405071464117513</v>
+        <v>0.0005429149880610894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acetic acid, hexyl ester</t>
+          <t>D-Limonene</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.007114947013040849</v>
+        <v>-0.2278716084046832</v>
       </c>
       <c r="C9">
-        <v>-0.004445305919010678</v>
+        <v>0.01276034194930006</v>
       </c>
       <c r="D9">
-        <v>0.004946373533452975</v>
+        <v>0.2036794063238583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aromadendrene</t>
+          <t>Limonene oxide, trans-</t>
         </is>
       </c>
       <c r="B10">
-        <v>0.0002434954626111163</v>
+        <v>9.572740099227119e-007</v>
       </c>
       <c r="C10">
-        <v>0.003357508474634752</v>
+        <v>-1.360782564347649e-008</v>
       </c>
       <c r="D10">
-        <v>-0.006573417160586122</v>
+        <v>2.284406648448816e-007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benzaldehyde &lt;para-ethyl-&gt;</t>
+          <t>Copaene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.04036123972387253</v>
+        <v>-0.04096522740326972</v>
       </c>
       <c r="C11">
-        <v>-0.04272822512184457</v>
+        <v>0.01071918449675842</v>
       </c>
       <c r="D11">
-        <v>-0.02650776396618268</v>
+        <v>-0.006342952882330259</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
+          <t>Copaene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B12">
-        <v>-7.400362008858583e-006</v>
+        <v>-0.1347379573273779</v>
       </c>
       <c r="C12">
-        <v>1.036653223616555e-006</v>
+        <v>0.008202214933508678</v>
       </c>
       <c r="D12">
-        <v>8.348693613958914e-006</v>
+        <v>0.02031296001778527</v>
       </c>
     </row>
     <row r="13">
@@ -562,653 +562,157 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.0007077417018134436</v>
+        <v>0.0007317314434057765</v>
       </c>
       <c r="C13">
-        <v>0.0001932817297922786</v>
+        <v>-0.0001385219265295234</v>
       </c>
       <c r="D13">
-        <v>0.0007849060471069201</v>
+        <v>0.002259037107521469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cadina-1,4-diene &lt;trans-&gt;</t>
+          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.008066905667195647</v>
+        <v>7.685467799570438e-006</v>
       </c>
       <c r="C14">
-        <v>-0.0001200589896279631</v>
+        <v>-1.312026635293968e-007</v>
       </c>
       <c r="D14">
-        <v>0.004320038808346623</v>
+        <v>9.393839098611625e-006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cadinene &lt;delta-&gt;</t>
+          <t>Caryophyllene</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.06859534953485535</v>
+        <v>-0.9601779107885861</v>
       </c>
       <c r="C15">
-        <v>-0.01400899657466761</v>
+        <v>-0.0621478756269926</v>
       </c>
       <c r="D15">
-        <v>0.04754946736614933</v>
+        <v>0.2048413903846566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Calamenene</t>
+          <t>Caryophyllene oxide</t>
         </is>
       </c>
       <c r="B16">
-        <v>0.0350796526202883</v>
+        <v>0.0001320009829052565</v>
       </c>
       <c r="C16">
-        <v>0.01260930587372695</v>
+        <v>-1.251260622751762e-005</v>
       </c>
       <c r="D16">
-        <v>-0.04115563775361588</v>
+        <v>0.0001748560273714715</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Camphor</t>
+          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
         </is>
       </c>
       <c r="B17">
-        <v>-0.01109060721354471</v>
+        <v>-0.1622172262960653</v>
       </c>
       <c r="C17">
-        <v>-0.07312954519619984</v>
+        <v>0.01007776035379617</v>
       </c>
       <c r="D17">
-        <v>-0.07558522088866361</v>
+        <v>0.02298167541269201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carene &lt;delta-3&gt;</t>
+          <t>Murrolene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B18">
-        <v>-0.000725423246269159</v>
+        <v>0.001339587355226061</v>
       </c>
       <c r="C18">
-        <v>0.0002066338669880939</v>
+        <v>-0.0002173603479989848</v>
       </c>
       <c r="D18">
-        <v>0.0008024496731060984</v>
+        <v>0.00376600059384438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carene, &lt;3-&gt;</t>
+          <t>Murrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B19">
-        <v>-0.005504078220131582</v>
+        <v>0.05212767013981489</v>
       </c>
       <c r="C19">
-        <v>0.001030233615301852</v>
+        <v>-0.0088514899146567</v>
       </c>
       <c r="D19">
-        <v>0.005976243469697835</v>
+        <v>0.1515733162662463</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Caryophyllene</t>
+          <t>Muurrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.9460199450171589</v>
+        <v>-2.927898944957213</v>
       </c>
       <c r="C20">
-        <v>0.1261376386017201</v>
+        <v>-0.1738697067535028</v>
       </c>
       <c r="D20">
-        <v>-0.1373289845759237</v>
+        <v>-0.1062120378326843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
+          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.1622215152118783</v>
+        <v>-0.9841492500298305</v>
       </c>
       <c r="C21">
-        <v>0.007184865294637447</v>
+        <v>0.593042869642906</v>
       </c>
       <c r="D21">
-        <v>0.001106204931236748</v>
+        <v>0.002874608438205391</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Caryophyllene oxide</t>
+          <t>Farnesene &lt;(E)-, beta-&gt;</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.0001273116077242101</v>
+        <v>-0.07256603542243864</v>
       </c>
       <c r="C22">
-        <v>2.438026918681451e-005</v>
+        <v>0.01028699470672111</v>
       </c>
       <c r="D22">
-        <v>0.0001279209763285531</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Copaene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0.04168664634971071</v>
-      </c>
-      <c r="C23">
-        <v>-0.01596737439752081</v>
-      </c>
-      <c r="D23">
-        <v>-0.0156742284888921</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Copaene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>0.1353489191969539</v>
-      </c>
-      <c r="C24">
-        <v>0.006019518753150861</v>
-      </c>
-      <c r="D24">
-        <v>0.009669139201952526</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cubebene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>-0.0005879168538924305</v>
-      </c>
-      <c r="C25">
-        <v>0.0001650911131764803</v>
-      </c>
-      <c r="D25">
-        <v>0.0006567887422049238</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>D-Limonene</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>0.2343457596435687</v>
-      </c>
-      <c r="C26">
-        <v>0.006687173876956824</v>
-      </c>
-      <c r="D26">
-        <v>0.1017943768935524</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Elemene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>0.04033044299565051</v>
-      </c>
-      <c r="C27">
-        <v>-0.06383043954158746</v>
-      </c>
-      <c r="D27">
-        <v>-0.06829449974540663</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E)-, beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>0.06657762377425154</v>
-      </c>
-      <c r="C28">
-        <v>0.0195278713283654</v>
-      </c>
-      <c r="D28">
-        <v>-0.07952257451362937</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>1.022543511419862</v>
-      </c>
-      <c r="C29">
-        <v>-0.4683893213892797</v>
-      </c>
-      <c r="D29">
-        <v>0.03899580341021853</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Germacrene D</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>0.2104232754035199</v>
-      </c>
-      <c r="C30">
-        <v>0.01123021791559</v>
-      </c>
-      <c r="D30">
-        <v>0.01912152514184661</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Humulene</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>0.06824908049839526</v>
-      </c>
-      <c r="C31">
-        <v>0.00710375928267359</v>
-      </c>
-      <c r="D31">
-        <v>-0.005753841734919114</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Limonene oxide, trans-</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>-9.197279983958929e-007</v>
-      </c>
-      <c r="C32">
-        <v>1.081372105267522e-007</v>
-      </c>
-      <c r="D32">
-        <v>9.209776263857786e-007</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mesitylene</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>-0.00126971235996203</v>
-      </c>
-      <c r="C33">
-        <v>0.0004447312130272389</v>
-      </c>
-      <c r="D33">
-        <v>0.001493387409302297</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Methyl Salicylate</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>0.5196326053598025</v>
-      </c>
-      <c r="C34">
-        <v>-0.4318270656088715</v>
-      </c>
-      <c r="D34">
-        <v>-0.4093130770387372</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>-0.001294836991558075</v>
-      </c>
-      <c r="C35">
-        <v>0.0003274139668943702</v>
-      </c>
-      <c r="D35">
-        <v>0.001440456916730113</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>-0.05039600192775876</v>
-      </c>
-      <c r="C36">
-        <v>0.01304000684596265</v>
-      </c>
-      <c r="D36">
-        <v>0.05616981676032657</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Muurrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>2.901115238912883</v>
-      </c>
-      <c r="C37">
-        <v>0.3909966034296432</v>
-      </c>
-      <c r="D37">
-        <v>-0.1872974757903318</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Myrcene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>0.04884919961193237</v>
-      </c>
-      <c r="C38">
-        <v>-0.01353841165580864</v>
-      </c>
-      <c r="D38">
-        <v>0.02821950872994277</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Nerolidol</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>0.03611749906186333</v>
-      </c>
-      <c r="C39">
-        <v>-0.03133759110291029</v>
-      </c>
-      <c r="D39">
-        <v>-0.01638256921418645</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nona-1,3,7-triene &lt;4-8-dimethyl-, (E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>0.2304756671385705</v>
-      </c>
-      <c r="C40">
-        <v>-0.2146689361117691</v>
-      </c>
-      <c r="D40">
-        <v>-0.1683614367195594</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>1.458089294909775</v>
-      </c>
-      <c r="C41">
-        <v>-0.2684725644439668</v>
-      </c>
-      <c r="D41">
-        <v>0.5947570044227013</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;trans-beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>0.3309022198992672</v>
-      </c>
-      <c r="C42">
-        <v>-0.07749855856786855</v>
-      </c>
-      <c r="D42">
-        <v>0.154951593177804</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>p-Cymene</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>-0.0004759578117865223</v>
-      </c>
-      <c r="C43">
-        <v>8.041186852646657e-005</v>
-      </c>
-      <c r="D43">
-        <v>0.0004856061036398277</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Pentane, 3-ethyl-2,2-dimethyl-</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>0.03701657065513756</v>
-      </c>
-      <c r="C44">
-        <v>-0.01714115935314263</v>
-      </c>
-      <c r="D44">
-        <v>0.02973434456060173</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Phellandrene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>-5.105599209955596e-005</v>
-      </c>
-      <c r="C45">
-        <v>9.465207785277879e-006</v>
-      </c>
-      <c r="D45">
-        <v>5.511526051793589e-005</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Pinene &lt;1R-alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>-0.0008089141001840967</v>
-      </c>
-      <c r="C46">
-        <v>9.557066164470254e-005</v>
-      </c>
-      <c r="D46">
-        <v>0.0007764590555034296</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Pinene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>0.346768452437601</v>
-      </c>
-      <c r="C47">
-        <v>0.04721927611784354</v>
-      </c>
-      <c r="D47">
-        <v>0.000877394741832126</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pinene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>0.379133436758294</v>
-      </c>
-      <c r="C48">
-        <v>0.04924830405572003</v>
-      </c>
-      <c r="D48">
-        <v>0.0266209530334931</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Terpineol &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>-9.108864683377286e-007</v>
-      </c>
-      <c r="C49">
-        <v>1.068982033523014e-007</v>
-      </c>
-      <c r="D49">
-        <v>9.175717500045244e-007</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Toulene</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>-0.0013936270825869</v>
-      </c>
-      <c r="C50">
-        <v>0.0001617691768907379</v>
-      </c>
-      <c r="D50">
-        <v>0.00132822150654087</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Trivertal</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>-0.0007010396286072237</v>
-      </c>
-      <c r="C51">
-        <v>0.001050075251066153</v>
-      </c>
-      <c r="D51">
-        <v>0.003098411136624064</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>0.08326576416973254</v>
-      </c>
-      <c r="C52">
-        <v>-0.1368571751212237</v>
-      </c>
-      <c r="D52">
-        <v>-0.1347130578785891</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Xylene &lt;m-&gt;</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>-0.01255410290929257</v>
-      </c>
-      <c r="C53">
-        <v>0.001660609026524068</v>
-      </c>
-      <c r="D53">
-        <v>0.01378798153072044</v>
+        <v>-0.2090988102624569</v>
       </c>
     </row>
   </sheetData>
